--- a/differences_6_0.25.xlsx
+++ b/differences_6_0.25.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.131</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.058</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06699999999999995</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.07300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04399999999999998</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06599999999999995</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02799999999999997</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.113</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-0.04699999999999999</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -4492,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-0.03599999999999998</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>-0.03600000000000003</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.04100000000000004</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.09300000000000008</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>-0.01299999999999996</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
